--- a/Table/Table_xls/挂机设置.xlsx
+++ b/Table/Table_xls/挂机设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="25600" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,46 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-0不默认勾选
-1默认勾选</t>
+          <t xml:space="preserve">不默认勾选
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>默认勾选</t>
         </r>
       </text>
     </comment>
@@ -41,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -258,12 +290,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,14 +365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,37 +395,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -409,7 +425,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,10 +486,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,35 +501,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -515,7 +563,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +677,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,151 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,8 +844,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -805,10 +855,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -838,15 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -861,6 +900,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,137 +929,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,7 +1216,12 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1450,27 +1504,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <cols>
     <col min="2" max="3" width="9" style="5"/>
-    <col min="4" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="4" max="7" width="13.2477876106195" customWidth="1"/>
+    <col min="8" max="8" width="41.3716814159292" customWidth="1"/>
+    <col min="9" max="9" width="13.3716814159292" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="46" customHeight="1" spans="1:9">
@@ -2449,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="37" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2475,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="38" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2501,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="39" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2527,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="40" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2553,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="41" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2579,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="42" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2605,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="43" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2631,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="44" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2657,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="45" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2683,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="46" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2709,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="47" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2735,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="48" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2761,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="49" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2787,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="50" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2813,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="51" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2839,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="52" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2865,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="53" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2891,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="54" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2917,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="55" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2936,14 +2989,14 @@
       <c r="G55" s="25">
         <v>167001</v>
       </c>
-      <c r="H55" s="34" t="s">
+      <c r="H55" s="35" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="56" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2962,14 +3015,14 @@
       <c r="G56" s="25">
         <v>167002</v>
       </c>
-      <c r="H56" s="34" t="s">
+      <c r="H56" s="35" t="s">
         <v>53</v>
       </c>
       <c r="I56" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="57" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2988,14 +3041,14 @@
       <c r="G57" s="25">
         <v>167003</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="H57" s="35" t="s">
         <v>54</v>
       </c>
       <c r="I57" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="58" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3014,14 +3067,14 @@
       <c r="G58" s="25">
         <v>167004</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="35" t="s">
         <v>55</v>
       </c>
       <c r="I58" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="59" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3040,14 +3093,14 @@
       <c r="G59" s="25">
         <v>167005</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="H59" s="35" t="s">
         <v>56</v>
       </c>
       <c r="I59" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="60" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3066,14 +3119,14 @@
       <c r="G60" s="25">
         <v>167006</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="35" t="s">
         <v>57</v>
       </c>
       <c r="I60" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="61" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3092,14 +3145,14 @@
       <c r="G61" s="25">
         <v>168001</v>
       </c>
-      <c r="H61" s="34" t="s">
+      <c r="H61" s="35" t="s">
         <v>58</v>
       </c>
       <c r="I61" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="62" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3118,14 +3171,14 @@
       <c r="G62" s="25">
         <v>168002</v>
       </c>
-      <c r="H62" s="34" t="s">
+      <c r="H62" s="35" t="s">
         <v>59</v>
       </c>
       <c r="I62" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="63" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3144,14 +3197,14 @@
       <c r="G63" s="25">
         <v>168003</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="35" t="s">
         <v>60</v>
       </c>
       <c r="I63" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="64" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3170,14 +3223,14 @@
       <c r="G64" s="25">
         <v>168004</v>
       </c>
-      <c r="H64" s="34" t="s">
+      <c r="H64" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I64" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="65" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3196,14 +3249,14 @@
       <c r="G65" s="25">
         <v>168005</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="35" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="66" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3222,14 +3275,14 @@
       <c r="G66" s="25">
         <v>168006</v>
       </c>
-      <c r="H66" s="34" t="s">
+      <c r="H66" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="67" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3248,14 +3301,14 @@
       <c r="G67" s="25">
         <v>169001</v>
       </c>
-      <c r="H67" s="34" t="s">
+      <c r="H67" s="35" t="s">
         <v>64</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="68" s="4" customFormat="1" ht="15.3" spans="1:9">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3274,14 +3327,14 @@
       <c r="G68" s="25">
         <v>169002</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="35" t="s">
         <v>65</v>
       </c>
       <c r="I68" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:9">
+    <row r="69" ht="15.3" spans="1:9">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3300,14 +3353,14 @@
       <c r="G69" s="25">
         <v>169003</v>
       </c>
-      <c r="H69" s="34" t="s">
+      <c r="H69" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:9">
+    <row r="70" ht="15.3" spans="1:9">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3326,14 +3379,14 @@
       <c r="G70" s="25">
         <v>169004</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="35" t="s">
         <v>67</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:9">
+    <row r="71" ht="15.3" spans="1:9">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3352,14 +3405,14 @@
       <c r="G71" s="25">
         <v>169005</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H71" s="35" t="s">
         <v>68</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:9">
+    <row r="72" ht="15.3" spans="1:9">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3378,7 +3431,7 @@
       <c r="G72" s="25">
         <v>169006</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H72" s="35" t="s">
         <v>69</v>
       </c>
       <c r="I72">
@@ -3386,7 +3439,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -3394,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3402,16 +3455,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3419,9 +3472,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
